--- a/uploads/student.xlsx
+++ b/uploads/student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F83C4-FFF8-4A33-9F58-5AB59992AE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7894D664-E6F4-4196-AA36-CAB7F401DDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>A</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>ksv</t>
+  </si>
+  <si>
+    <t>ramu</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>divyansh</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>rohtak</t>
   </si>
 </sst>
 </file>
@@ -388,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,6 +520,84 @@
         <v>45605</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8555</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>7418520963</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>8520963741</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>8520967741</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45605</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
